--- a/Parsing_characteristis_and_photo/parsing_3dplitka/try.xlsx
+++ b/Parsing_characteristis_and_photo/parsing_3dplitka/try.xlsx
@@ -1348,13 +1348,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX44"/>
+  <dimension ref="A1:BG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="AI37" workbookViewId="0">
+      <selection activeCell="AS44" sqref="AS44:BK47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1328125" defaultRowHeight="11.65"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1328125" defaultRowHeight="11.65" outlineLevelCol="0"/>
   <cols>
     <col width="14.1328125" customWidth="1" style="55" min="1" max="1"/>
     <col width="16.796875" customWidth="1" style="55" min="2" max="2"/>
@@ -1385,9 +1385,12 @@
     <col width="9.3984375" customWidth="1" style="27" min="40" max="40"/>
     <col width="9.3984375" customWidth="1" style="24" min="41" max="42"/>
     <col width="9.1328125" customWidth="1" style="28" min="43" max="44"/>
-    <col width="13.1328125" customWidth="1" style="28" min="45" max="49"/>
-    <col width="9.1328125" customWidth="1" style="29" min="50" max="51"/>
-    <col width="9.1328125" customWidth="1" style="29" min="52" max="16384"/>
+    <col width="18.265625" customWidth="1" style="28" min="45" max="45"/>
+    <col width="8.59765625" bestFit="1" customWidth="1" style="28" min="46" max="49"/>
+    <col width="8.59765625" bestFit="1" customWidth="1" style="29" min="50" max="53"/>
+    <col width="9.3984375" bestFit="1" customWidth="1" style="29" min="54" max="59"/>
+    <col width="9.1328125" customWidth="1" style="29" min="60" max="61"/>
+    <col width="9.1328125" customWidth="1" style="29" min="62" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
@@ -3211,32 +3214,77 @@
       </c>
       <c r="AS41" s="96" t="inlineStr">
         <is>
-          <t>Основная Картинка товара</t>
+          <t>Картинка_1</t>
         </is>
       </c>
       <c r="AT41" s="96" t="inlineStr">
         <is>
-          <t>Картинка_02</t>
+          <t>Картинка_2</t>
         </is>
       </c>
       <c r="AU41" s="96" t="inlineStr">
         <is>
-          <t>Картинка_03</t>
+          <t>Картинка_3</t>
         </is>
       </c>
       <c r="AV41" s="96" t="inlineStr">
         <is>
-          <t>Картинка_04</t>
+          <t>Картинка_4</t>
         </is>
       </c>
       <c r="AW41" s="96" t="inlineStr">
         <is>
-          <t>Картинка_05</t>
-        </is>
-      </c>
-      <c r="AX41" s="99" t="inlineStr">
-        <is>
-          <t>Проверка на пробел справа!</t>
+          <t>Картинка_5</t>
+        </is>
+      </c>
+      <c r="AX41" s="96" t="inlineStr">
+        <is>
+          <t>Картинка_6</t>
+        </is>
+      </c>
+      <c r="AY41" s="96" t="inlineStr">
+        <is>
+          <t>Картинка_7</t>
+        </is>
+      </c>
+      <c r="AZ41" s="96" t="inlineStr">
+        <is>
+          <t>Картинка_8</t>
+        </is>
+      </c>
+      <c r="BA41" s="96" t="inlineStr">
+        <is>
+          <t>Картинка_9</t>
+        </is>
+      </c>
+      <c r="BB41" s="96" t="inlineStr">
+        <is>
+          <t>Картинка_10</t>
+        </is>
+      </c>
+      <c r="BC41" s="96" t="inlineStr">
+        <is>
+          <t>Картинка_11</t>
+        </is>
+      </c>
+      <c r="BD41" s="96" t="inlineStr">
+        <is>
+          <t>Картинка_12</t>
+        </is>
+      </c>
+      <c r="BE41" s="96" t="inlineStr">
+        <is>
+          <t>Картинка_13</t>
+        </is>
+      </c>
+      <c r="BF41" s="96" t="inlineStr">
+        <is>
+          <t>Картинка_14</t>
+        </is>
+      </c>
+      <c r="BG41" s="96" t="inlineStr">
+        <is>
+          <t>Картинка_15</t>
         </is>
       </c>
     </row>
@@ -3510,7 +3558,6 @@
       <c r="AU43" s="110" t="n"/>
       <c r="AV43" s="110" t="n"/>
       <c r="AW43" s="110" t="n"/>
-      <c r="AX43" s="113" t="n"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" t="inlineStr">
@@ -3643,10 +3690,228 @@
           <t>1866</t>
         </is>
       </c>
-      <c r="AT44" s="29" t="n"/>
-      <c r="AU44" s="29" t="n"/>
-      <c r="AV44" s="29" t="n"/>
-      <c r="AW44" s="29" t="n"/>
+      <c r="AS44" t="inlineStr">
+        <is>
+          <t>downloaded_images/Gracia Ceramica Abremo 010400000494 Beige Pg 01 60x120_1.jpg</t>
+        </is>
+      </c>
+      <c r="AT44" s="29" t="inlineStr">
+        <is>
+          <t>downloaded_images/Gracia Ceramica Abremo 010400000494 Beige Pg 01 60x120_2.jpg</t>
+        </is>
+      </c>
+      <c r="AU44" s="29" t="inlineStr">
+        <is>
+          <t>downloaded_images/Gracia Ceramica Abremo 010400000494 Beige Pg 01 60x120_3.jpg</t>
+        </is>
+      </c>
+      <c r="AV44" s="29" t="inlineStr">
+        <is>
+          <t>downloaded_images/Gracia Ceramica Abremo 010400000494 Beige Pg 01 60x120_4.jpg</t>
+        </is>
+      </c>
+      <c r="AW44" s="29" t="inlineStr">
+        <is>
+          <t>downloaded_images/Gracia Ceramica Abremo 010400000494 Beige Pg 01 60x120_5.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://3dplitka.ru/product-768714/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Мир Керамики</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Российская плитка</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Gracia Ceramica</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Abremo</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Gracia Ceramica Abremo 010400000486 Grey Pg 01 60x120</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Керамогранит</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Для ванной, Для гостиной, Для коридора, Для кухни, Для общественных помещений</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Керамогранит</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Оттенки серого</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Матовая</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>ректифицированная</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>под камень, травертин, сланец, гранит</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Современный</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>прямоугольник</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Вариативность цвета</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>Влагопоглощаемость</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>36,4</t>
+        </is>
+      </c>
+      <c r="AP45" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="AS45" t="inlineStr">
+        <is>
+          <t>downloaded_images/Gracia Ceramica Abremo 010400000486 Grey Pg 01 60x120_1.jpg</t>
+        </is>
+      </c>
+      <c r="AT45" s="29" t="inlineStr">
+        <is>
+          <t>downloaded_images/Gracia Ceramica Abremo 010400000486 Grey Pg 01 60x120_2.jpg</t>
+        </is>
+      </c>
+      <c r="AU45" s="29" t="inlineStr">
+        <is>
+          <t>downloaded_images/Gracia Ceramica Abremo 010400000486 Grey Pg 01 60x120_3.jpg</t>
+        </is>
+      </c>
+      <c r="AV45" s="29" t="inlineStr">
+        <is>
+          <t>downloaded_images/Gracia Ceramica Abremo 010400000486 Grey Pg 01 60x120_4.jpg</t>
+        </is>
+      </c>
+      <c r="AW45" s="29" t="inlineStr">
+        <is>
+          <t>downloaded_images/Gracia Ceramica Abremo 010400000486 Grey Pg 01 60x120_5.jpg</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>downloaded_images/Gracia Ceramica Abremo 010400000486 Grey Pg 01 60x120_6.jpg</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr">
+        <is>
+          <t>downloaded_images/Gracia Ceramica Abremo 010400000486 Grey Pg 01 60x120_7.jpg</t>
+        </is>
+      </c>
+      <c r="AZ45" t="inlineStr">
+        <is>
+          <t>downloaded_images/Gracia Ceramica Abremo 010400000486 Grey Pg 01 60x120_8.jpg</t>
+        </is>
+      </c>
+      <c r="BA45" t="inlineStr">
+        <is>
+          <t>downloaded_images/Gracia Ceramica Abremo 010400000486 Grey Pg 01 60x120_9.jpg</t>
+        </is>
+      </c>
+      <c r="BB45" t="inlineStr">
+        <is>
+          <t>downloaded_images/Gracia Ceramica Abremo 010400000486 Grey Pg 01 60x120_10.jpg</t>
+        </is>
+      </c>
+      <c r="BC45" t="inlineStr">
+        <is>
+          <t>downloaded_images/Gracia Ceramica Abremo 010400000486 Grey Pg 01 60x120_11.jpg</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3679,10 +3944,10 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A37" sqref="A1:XFD1048576"/>
+      <selection activeCell="A44" sqref="A44:XFD45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1328125" defaultRowHeight="11.65"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1328125" defaultRowHeight="11.65" outlineLevelCol="0"/>
   <cols>
     <col width="14.1328125" customWidth="1" style="55" min="1" max="1"/>
     <col width="16.796875" customWidth="1" style="55" min="2" max="2"/>
@@ -3714,8 +3979,8 @@
     <col width="9.3984375" customWidth="1" style="24" min="41" max="42"/>
     <col width="9.1328125" customWidth="1" style="28" min="43" max="44"/>
     <col width="13.1328125" customWidth="1" style="28" min="45" max="49"/>
-    <col width="9.1328125" customWidth="1" style="29" min="50" max="53"/>
-    <col width="9.1328125" customWidth="1" style="29" min="54" max="16384"/>
+    <col width="9.1328125" customWidth="1" style="29" min="50" max="59"/>
+    <col width="9.1328125" customWidth="1" style="29" min="60" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
@@ -6881,7 +7146,7 @@
       <selection activeCell="B42" sqref="B42:F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1328125" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1328125" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="9" bestFit="1" customWidth="1" style="55" min="1" max="1"/>
     <col width="12.73046875" bestFit="1" customWidth="1" style="55" min="2" max="2"/>
@@ -6910,8 +7175,8 @@
     <col width="9.3984375" bestFit="1" customWidth="1" style="27" min="28" max="28"/>
     <col width="9.3984375" bestFit="1" customWidth="1" style="24" min="29" max="29"/>
     <col width="9.1328125" customWidth="1" style="28" min="30" max="31"/>
-    <col width="9.1328125" customWidth="1" style="29" min="32" max="35"/>
-    <col width="9.1328125" customWidth="1" style="29" min="36" max="16384"/>
+    <col width="9.1328125" customWidth="1" style="29" min="32" max="41"/>
+    <col width="9.1328125" customWidth="1" style="29" min="42" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
